--- a/natmiOut/OldD4/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H2">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I2">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J2">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.969549353884781</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N2">
-        <v>0.969549353884781</v>
+        <v>2.222197</v>
       </c>
       <c r="O2">
-        <v>0.2768928373407342</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P2">
-        <v>0.2768928373407342</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q2">
-        <v>26.4321208241008</v>
+        <v>20.54636408007144</v>
       </c>
       <c r="R2">
-        <v>26.4321208241008</v>
+        <v>184.917276720643</v>
       </c>
       <c r="S2">
-        <v>0.001980243455716967</v>
+        <v>0.0006822766092152947</v>
       </c>
       <c r="T2">
-        <v>0.001980243455716967</v>
+        <v>0.0007147479025852445</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H3">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I3">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J3">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.805860629273945</v>
+        <v>1.080588666666667</v>
       </c>
       <c r="N3">
-        <v>0.805860629273945</v>
+        <v>3.241766</v>
       </c>
       <c r="O3">
-        <v>0.2301451032345995</v>
+        <v>0.1828787726899297</v>
       </c>
       <c r="P3">
-        <v>0.2301451032345995</v>
+        <v>0.1910971424199137</v>
       </c>
       <c r="Q3">
-        <v>21.96959384791269</v>
+        <v>29.97326722086155</v>
       </c>
       <c r="R3">
-        <v>21.96959384791269</v>
+        <v>269.759404987754</v>
       </c>
       <c r="S3">
-        <v>0.001645919551125118</v>
+        <v>0.0009953127982575034</v>
       </c>
       <c r="T3">
-        <v>0.001645919551125118</v>
+        <v>0.001042682286571423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H4">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I4">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J4">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.53263119559408</v>
+        <v>1.412055666666667</v>
       </c>
       <c r="N4">
-        <v>1.53263119559408</v>
+        <v>4.236167</v>
       </c>
       <c r="O4">
-        <v>0.4377029376014604</v>
+        <v>0.2389762314336017</v>
       </c>
       <c r="P4">
-        <v>0.4377029376014604</v>
+        <v>0.2497155589001607</v>
       </c>
       <c r="Q4">
-        <v>41.78301267327024</v>
+        <v>39.16746781945255</v>
       </c>
       <c r="R4">
-        <v>41.78301267327024</v>
+        <v>352.507210375073</v>
       </c>
       <c r="S4">
-        <v>0.003130302632808023</v>
+        <v>0.001300621707629759</v>
       </c>
       <c r="T4">
-        <v>0.003130302632808023</v>
+        <v>0.001362521629833371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H5">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I5">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J5">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.19349162793258</v>
+        <v>1.913051666666667</v>
       </c>
       <c r="N5">
-        <v>0.19349162793258</v>
+        <v>5.739155</v>
       </c>
       <c r="O5">
-        <v>0.05525912182320596</v>
+        <v>0.3237647697820488</v>
       </c>
       <c r="P5">
-        <v>0.05525912182320596</v>
+        <v>0.3383144003623209</v>
       </c>
       <c r="Q5">
-        <v>5.275021913504049</v>
+        <v>53.06404794082722</v>
       </c>
       <c r="R5">
-        <v>5.275021913504049</v>
+        <v>477.576431467445</v>
       </c>
       <c r="S5">
-        <v>0.0003951944564908119</v>
+        <v>0.001762081045542319</v>
       </c>
       <c r="T5">
-        <v>0.0003951944564908119</v>
+        <v>0.001845943000940789</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.3557215113677</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H6">
-        <v>41.3557215113677</v>
+        <v>83.213719</v>
       </c>
       <c r="I6">
-        <v>0.01084876689483259</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J6">
-        <v>0.01084876689483259</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.969549353884781</v>
+        <v>0.762342</v>
       </c>
       <c r="N6">
-        <v>0.969549353884781</v>
+        <v>1.524684</v>
       </c>
       <c r="O6">
-        <v>0.2768928373407342</v>
+        <v>0.1290187225080277</v>
       </c>
       <c r="P6">
-        <v>0.2768928373407342</v>
+        <v>0.0898777874446717</v>
       </c>
       <c r="Q6">
-        <v>40.09641307078549</v>
+        <v>21.145770989966</v>
       </c>
       <c r="R6">
-        <v>40.09641307078549</v>
+        <v>126.874625939796</v>
       </c>
       <c r="S6">
-        <v>0.003003945847158422</v>
+        <v>0.0007021809247637445</v>
       </c>
       <c r="T6">
-        <v>0.003003945847158422</v>
+        <v>0.0004903996770337106</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H7">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I7">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J7">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.805860629273945</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N7">
-        <v>0.805860629273945</v>
+        <v>2.222197</v>
       </c>
       <c r="O7">
-        <v>0.2301451032345995</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P7">
-        <v>0.2301451032345995</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q7">
-        <v>33.32694776122879</v>
+        <v>33.45067242932411</v>
       </c>
       <c r="R7">
-        <v>33.32694776122879</v>
+        <v>301.056051863917</v>
       </c>
       <c r="S7">
-        <v>0.002496790576979351</v>
+        <v>0.001110785892438612</v>
       </c>
       <c r="T7">
-        <v>0.002496790576979351</v>
+        <v>0.001163651041408118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H8">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I8">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J8">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.53263119559408</v>
+        <v>1.080588666666667</v>
       </c>
       <c r="N8">
-        <v>1.53263119559408</v>
+        <v>3.241766</v>
       </c>
       <c r="O8">
-        <v>0.4377029376014604</v>
+        <v>0.1828787726899297</v>
       </c>
       <c r="P8">
-        <v>0.4377029376014604</v>
+        <v>0.1910971424199137</v>
       </c>
       <c r="Q8">
-        <v>63.38306890462329</v>
+        <v>48.79821751110289</v>
       </c>
       <c r="R8">
-        <v>63.38306890462329</v>
+        <v>439.183957599926</v>
       </c>
       <c r="S8">
-        <v>0.004748537139221697</v>
+        <v>0.001620426964570266</v>
       </c>
       <c r="T8">
-        <v>0.004748537139221697</v>
+        <v>0.001697547239016805</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H9">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I9">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J9">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.19349162793258</v>
+        <v>1.412055666666667</v>
       </c>
       <c r="N9">
-        <v>0.19349162793258</v>
+        <v>4.236167</v>
       </c>
       <c r="O9">
-        <v>0.05525912182320596</v>
+        <v>0.2389762314336017</v>
       </c>
       <c r="P9">
-        <v>0.05525912182320596</v>
+        <v>0.2497155589001607</v>
       </c>
       <c r="Q9">
-        <v>8.001985879560953</v>
+        <v>63.76690935723189</v>
       </c>
       <c r="R9">
-        <v>8.001985879560953</v>
+        <v>573.902184215087</v>
       </c>
       <c r="S9">
-        <v>0.0005994933314731178</v>
+        <v>0.002117487577210301</v>
       </c>
       <c r="T9">
-        <v>0.0005994933314731178</v>
+        <v>0.002218264240807049</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2170.16285575518</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H10">
-        <v>2170.16285575518</v>
+        <v>135.476761</v>
       </c>
       <c r="I10">
-        <v>0.5692946486120566</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J10">
-        <v>0.5692946486120566</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.969549353884781</v>
+        <v>1.913051666666667</v>
       </c>
       <c r="N10">
-        <v>0.969549353884781</v>
+        <v>5.739155</v>
       </c>
       <c r="O10">
-        <v>0.2768928373407342</v>
+        <v>0.3237647697820488</v>
       </c>
       <c r="P10">
-        <v>0.2768928373407342</v>
+        <v>0.3383144003623209</v>
       </c>
       <c r="Q10">
-        <v>2104.079994622186</v>
+        <v>86.39134780855056</v>
       </c>
       <c r="R10">
-        <v>2104.079994622186</v>
+        <v>777.5221302769551</v>
       </c>
       <c r="S10">
-        <v>0.1576336105370886</v>
+        <v>0.002868770144374475</v>
       </c>
       <c r="T10">
-        <v>0.1576336105370886</v>
+        <v>0.003005302271829457</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2170.16285575518</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H11">
-        <v>2170.16285575518</v>
+        <v>135.476761</v>
       </c>
       <c r="I11">
-        <v>0.5692946486120566</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J11">
-        <v>0.5692946486120566</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.805860629273945</v>
+        <v>0.762342</v>
       </c>
       <c r="N11">
-        <v>0.805860629273945</v>
+        <v>1.524684</v>
       </c>
       <c r="O11">
-        <v>0.2301451032345995</v>
+        <v>0.1290187225080277</v>
       </c>
       <c r="P11">
-        <v>0.2301451032345995</v>
+        <v>0.0898777874446717</v>
       </c>
       <c r="Q11">
-        <v>1748.848804565811</v>
+        <v>34.426541644754</v>
       </c>
       <c r="R11">
-        <v>1748.848804565811</v>
+        <v>206.559249868524</v>
       </c>
       <c r="S11">
-        <v>0.1310203756757268</v>
+        <v>0.001143191272619084</v>
       </c>
       <c r="T11">
-        <v>0.1310203756757268</v>
+        <v>0.0007983991178182196</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H12">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I12">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J12">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.53263119559408</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N12">
-        <v>1.53263119559408</v>
+        <v>2.222197</v>
       </c>
       <c r="O12">
-        <v>0.4377029376014604</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P12">
-        <v>0.4377029376014604</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q12">
-        <v>3326.059292249924</v>
+        <v>1935.287972256895</v>
       </c>
       <c r="R12">
-        <v>3326.059292249924</v>
+        <v>17417.59175031205</v>
       </c>
       <c r="S12">
-        <v>0.2491819400582883</v>
+        <v>0.06426449518858066</v>
       </c>
       <c r="T12">
-        <v>0.2491819400582883</v>
+        <v>0.0673230073057411</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H13">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I13">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J13">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.19349162793258</v>
+        <v>1.080588666666667</v>
       </c>
       <c r="N13">
-        <v>0.19349162793258</v>
+        <v>3.241766</v>
       </c>
       <c r="O13">
-        <v>0.05525912182320596</v>
+        <v>0.1828787726899297</v>
       </c>
       <c r="P13">
-        <v>0.05525912182320596</v>
+        <v>0.1910971424199137</v>
       </c>
       <c r="Q13">
-        <v>419.9083438388866</v>
+        <v>2823.219880447748</v>
       </c>
       <c r="R13">
-        <v>419.9083438388866</v>
+        <v>25408.97892402974</v>
       </c>
       <c r="S13">
-        <v>0.03145872234095286</v>
+        <v>0.09374976903915556</v>
       </c>
       <c r="T13">
-        <v>0.03145872234095286</v>
+        <v>0.09821156094689314</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1536.18479857231</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H14">
-        <v>1536.18479857231</v>
+        <v>7838.005249</v>
       </c>
       <c r="I14">
-        <v>0.4029844040446819</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J14">
-        <v>0.4029844040446819</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.969549353884781</v>
+        <v>1.412055666666667</v>
       </c>
       <c r="N14">
-        <v>0.969549353884781</v>
+        <v>4.236167</v>
       </c>
       <c r="O14">
-        <v>0.2768928373407342</v>
+        <v>0.2389762314336017</v>
       </c>
       <c r="P14">
-        <v>0.2768928373407342</v>
+        <v>0.2497155589001607</v>
       </c>
       <c r="Q14">
-        <v>1489.406978903406</v>
+        <v>3689.233242404509</v>
       </c>
       <c r="R14">
-        <v>1489.406978903406</v>
+        <v>33203.09918164058</v>
       </c>
       <c r="S14">
-        <v>0.1115834950399968</v>
+        <v>0.1225072006620134</v>
       </c>
       <c r="T14">
-        <v>0.1115834950399968</v>
+        <v>0.1283376324823314</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1536.18479857231</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H15">
-        <v>1536.18479857231</v>
+        <v>7838.005249</v>
       </c>
       <c r="I15">
-        <v>0.4029844040446819</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J15">
-        <v>0.4029844040446819</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.805860629273945</v>
+        <v>1.913051666666667</v>
       </c>
       <c r="N15">
-        <v>0.805860629273945</v>
+        <v>5.739155</v>
       </c>
       <c r="O15">
-        <v>0.2301451032345995</v>
+        <v>0.3237647697820488</v>
       </c>
       <c r="P15">
-        <v>0.2301451032345995</v>
+        <v>0.3383144003623209</v>
       </c>
       <c r="Q15">
-        <v>1237.95084845855</v>
+        <v>4998.169668313844</v>
       </c>
       <c r="R15">
-        <v>1237.95084845855</v>
+        <v>44983.5270148246</v>
       </c>
       <c r="S15">
-        <v>0.09274488727079687</v>
+        <v>0.1659726382872529</v>
       </c>
       <c r="T15">
-        <v>0.09274488727079687</v>
+        <v>0.173871701741016</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1536.18479857231</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H16">
-        <v>1536.18479857231</v>
+        <v>7838.005249</v>
       </c>
       <c r="I16">
-        <v>0.4029844040446819</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J16">
-        <v>0.4029844040446819</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.53263119559408</v>
+        <v>0.762342</v>
       </c>
       <c r="N16">
-        <v>1.53263119559408</v>
+        <v>1.524684</v>
       </c>
       <c r="O16">
-        <v>0.4377029376014604</v>
+        <v>0.1290187225080277</v>
       </c>
       <c r="P16">
-        <v>0.4377029376014604</v>
+        <v>0.0898777874446717</v>
       </c>
       <c r="Q16">
-        <v>2354.40474448933</v>
+        <v>1991.746865844386</v>
       </c>
       <c r="R16">
-        <v>2354.40474448933</v>
+        <v>11950.48119506632</v>
       </c>
       <c r="S16">
-        <v>0.1763874574579311</v>
+        <v>0.066139307799065</v>
       </c>
       <c r="T16">
-        <v>0.1763874574579311</v>
+        <v>0.04619136470391533</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H17">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I17">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J17">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.19349162793258</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N17">
-        <v>0.19349162793258</v>
+        <v>2.222197</v>
       </c>
       <c r="O17">
-        <v>0.05525912182320596</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P17">
-        <v>0.05525912182320596</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q17">
-        <v>297.2388974810388</v>
+        <v>1757.214966988691</v>
       </c>
       <c r="R17">
-        <v>297.2388974810388</v>
+        <v>15814.93470289822</v>
       </c>
       <c r="S17">
-        <v>0.02226856427595713</v>
+        <v>0.05835128126159642</v>
       </c>
       <c r="T17">
-        <v>0.02226856427595713</v>
+        <v>0.06112836836492969</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,57 +1526,57 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>37.0548225924445</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H18">
-        <v>37.0548225924445</v>
+        <v>7116.801392</v>
       </c>
       <c r="I18">
-        <v>0.009720520352288053</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J18">
-        <v>0.009720520352288053</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.969549353884781</v>
+        <v>1.080588666666667</v>
       </c>
       <c r="N18">
-        <v>0.969549353884781</v>
+        <v>3.241766</v>
       </c>
       <c r="O18">
-        <v>0.2768928373407342</v>
+        <v>0.1828787726899297</v>
       </c>
       <c r="P18">
-        <v>0.2768928373407342</v>
+        <v>0.1910971424199137</v>
       </c>
       <c r="Q18">
-        <v>35.92647930281975</v>
+        <v>2563.444975704253</v>
       </c>
       <c r="R18">
-        <v>35.92647930281975</v>
+        <v>23071.00478133827</v>
       </c>
       <c r="S18">
-        <v>0.002691542460773392</v>
+        <v>0.08512350599441923</v>
       </c>
       <c r="T18">
-        <v>0.002691542460773392</v>
+        <v>0.08917475192384143</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>37.0548225924445</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H19">
-        <v>37.0548225924445</v>
+        <v>7116.801392</v>
       </c>
       <c r="I19">
-        <v>0.009720520352288053</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J19">
-        <v>0.009720520352288053</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.805860629273945</v>
+        <v>1.412055666666667</v>
       </c>
       <c r="N19">
-        <v>0.805860629273945</v>
+        <v>4.236167</v>
       </c>
       <c r="O19">
-        <v>0.2301451032345995</v>
+        <v>0.2389762314336017</v>
       </c>
       <c r="P19">
-        <v>0.2301451032345995</v>
+        <v>0.2497155589001607</v>
       </c>
       <c r="Q19">
-        <v>29.86102265198172</v>
+        <v>3349.77324470494</v>
       </c>
       <c r="R19">
-        <v>29.86102265198172</v>
+        <v>30147.95920234446</v>
       </c>
       <c r="S19">
-        <v>0.002237130159971359</v>
+        <v>0.1112348599553024</v>
       </c>
       <c r="T19">
-        <v>0.002237130159971359</v>
+        <v>0.1165288121761298</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.0548225924445</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H20">
-        <v>37.0548225924445</v>
+        <v>7116.801392</v>
       </c>
       <c r="I20">
-        <v>0.009720520352288053</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J20">
-        <v>0.009720520352288053</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.53263119559408</v>
+        <v>1.913051666666667</v>
       </c>
       <c r="N20">
-        <v>1.53263119559408</v>
+        <v>5.739155</v>
       </c>
       <c r="O20">
-        <v>0.4377029376014604</v>
+        <v>0.3237647697820488</v>
       </c>
       <c r="P20">
-        <v>0.4377029376014604</v>
+        <v>0.3383144003623209</v>
       </c>
       <c r="Q20">
-        <v>56.79137705238474</v>
+        <v>4538.269588100418</v>
       </c>
       <c r="R20">
-        <v>56.79137705238474</v>
+        <v>40844.42629290376</v>
       </c>
       <c r="S20">
-        <v>0.004254700313211263</v>
+        <v>0.1507008818790132</v>
       </c>
       <c r="T20">
-        <v>0.004254700313211263</v>
+        <v>0.1578731232844919</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.0548225924445</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H21">
-        <v>37.0548225924445</v>
+        <v>7116.801392</v>
       </c>
       <c r="I21">
-        <v>0.009720520352288053</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J21">
-        <v>0.009720520352288053</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.19349162793258</v>
+        <v>0.762342</v>
       </c>
       <c r="N21">
-        <v>0.19349162793258</v>
+        <v>1.524684</v>
       </c>
       <c r="O21">
-        <v>0.05525912182320596</v>
+        <v>0.1290187225080277</v>
       </c>
       <c r="P21">
-        <v>0.05525912182320596</v>
+        <v>0.0898777874446717</v>
       </c>
       <c r="Q21">
-        <v>7.169797946165032</v>
+        <v>1808.478868926688</v>
       </c>
       <c r="R21">
-        <v>7.169797946165032</v>
+        <v>10850.87321356013</v>
       </c>
       <c r="S21">
-        <v>0.0005371474183320385</v>
+        <v>0.06005358542855734</v>
       </c>
       <c r="T21">
-        <v>0.0005371474183320385</v>
+        <v>0.04194112636823578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>38.730512</v>
+      </c>
+      <c r="H22">
+        <v>77.46102399999999</v>
+      </c>
+      <c r="I22">
+        <v>0.00759933956842245</v>
+      </c>
+      <c r="J22">
+        <v>0.005079092294630384</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.7407323333333333</v>
+      </c>
+      <c r="N22">
+        <v>2.222197</v>
+      </c>
+      <c r="O22">
+        <v>0.125361503586392</v>
+      </c>
+      <c r="P22">
+        <v>0.1309951108729331</v>
+      </c>
+      <c r="Q22">
+        <v>28.68894252495467</v>
+      </c>
+      <c r="R22">
+        <v>172.133655149728</v>
+      </c>
+      <c r="S22">
+        <v>0.0009526646345610014</v>
+      </c>
+      <c r="T22">
+        <v>0.0006653362582689674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>38.730512</v>
+      </c>
+      <c r="H23">
+        <v>77.46102399999999</v>
+      </c>
+      <c r="I23">
+        <v>0.00759933956842245</v>
+      </c>
+      <c r="J23">
+        <v>0.005079092294630384</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.080588666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.241766</v>
+      </c>
+      <c r="O23">
+        <v>0.1828787726899297</v>
+      </c>
+      <c r="P23">
+        <v>0.1910971424199137</v>
+      </c>
+      <c r="Q23">
+        <v>41.85175232139733</v>
+      </c>
+      <c r="R23">
+        <v>251.110513928384</v>
+      </c>
+      <c r="S23">
+        <v>0.001389757893527117</v>
+      </c>
+      <c r="T23">
+        <v>0.0009706000235908685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>38.730512</v>
+      </c>
+      <c r="H24">
+        <v>77.46102399999999</v>
+      </c>
+      <c r="I24">
+        <v>0.00759933956842245</v>
+      </c>
+      <c r="J24">
+        <v>0.005079092294630384</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.412055666666667</v>
+      </c>
+      <c r="N24">
+        <v>4.236167</v>
+      </c>
+      <c r="O24">
+        <v>0.2389762314336017</v>
+      </c>
+      <c r="P24">
+        <v>0.2497155589001607</v>
+      </c>
+      <c r="Q24">
+        <v>54.68963894250133</v>
+      </c>
+      <c r="R24">
+        <v>328.137833655008</v>
+      </c>
+      <c r="S24">
+        <v>0.00181606153144585</v>
+      </c>
+      <c r="T24">
+        <v>0.001268328371059126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>38.730512</v>
+      </c>
+      <c r="H25">
+        <v>77.46102399999999</v>
+      </c>
+      <c r="I25">
+        <v>0.00759933956842245</v>
+      </c>
+      <c r="J25">
+        <v>0.005079092294630384</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.913051666666667</v>
+      </c>
+      <c r="N25">
+        <v>5.739155</v>
+      </c>
+      <c r="O25">
+        <v>0.3237647697820488</v>
+      </c>
+      <c r="P25">
+        <v>0.3383144003623209</v>
+      </c>
+      <c r="Q25">
+        <v>74.09347053245334</v>
+      </c>
+      <c r="R25">
+        <v>444.56082319472</v>
+      </c>
+      <c r="S25">
+        <v>0.002460398425865909</v>
+      </c>
+      <c r="T25">
+        <v>0.001718330064042763</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>38.730512</v>
+      </c>
+      <c r="H26">
+        <v>77.46102399999999</v>
+      </c>
+      <c r="I26">
+        <v>0.00759933956842245</v>
+      </c>
+      <c r="J26">
+        <v>0.005079092294630384</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.762342</v>
+      </c>
+      <c r="N26">
+        <v>1.524684</v>
+      </c>
+      <c r="O26">
+        <v>0.1290187225080277</v>
+      </c>
+      <c r="P26">
+        <v>0.0898777874446717</v>
+      </c>
+      <c r="Q26">
+        <v>29.525895979104</v>
+      </c>
+      <c r="R26">
+        <v>118.103583916416</v>
+      </c>
+      <c r="S26">
+        <v>0.0009804570830225714</v>
+      </c>
+      <c r="T26">
+        <v>0.0004564975776686595</v>
       </c>
     </row>
   </sheetData>
